--- a/NatmiData/natmiOut_TPM/YoungD2/LR-pairs_lrc2p/Dll4-Notch1.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD2/LR-pairs_lrc2p/Dll4-Notch1.xlsx
@@ -543,16 +543,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>28.06257966666666</v>
+        <v>44.49711866666667</v>
       </c>
       <c r="H2">
-        <v>84.18773899999999</v>
+        <v>133.491356</v>
       </c>
       <c r="I2">
-        <v>0.955675154441775</v>
+        <v>0.9783373366533485</v>
       </c>
       <c r="J2">
-        <v>0.9556751544417748</v>
+        <v>0.9783373366533487</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -561,28 +561,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>45.13108133333333</v>
+        <v>62.58874</v>
       </c>
       <c r="N2">
-        <v>135.393244</v>
+        <v>187.76622</v>
       </c>
       <c r="O2">
-        <v>0.3170330137447531</v>
+        <v>0.4331197020873656</v>
       </c>
       <c r="P2">
-        <v>0.3170330137447531</v>
+        <v>0.4331197020873655</v>
       </c>
       <c r="Q2">
-        <v>1266.49456535948</v>
+        <v>2785.018590977147</v>
       </c>
       <c r="R2">
-        <v>11398.45108823532</v>
+        <v>25065.16731879432</v>
       </c>
       <c r="S2">
-        <v>0.3029805743736583</v>
+        <v>0.423737175792245</v>
       </c>
       <c r="T2">
-        <v>0.3029805743736582</v>
+        <v>0.423737175792245</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -605,16 +605,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>28.06257966666666</v>
+        <v>44.49711866666667</v>
       </c>
       <c r="H3">
-        <v>84.18773899999999</v>
+        <v>133.491356</v>
       </c>
       <c r="I3">
-        <v>0.955675154441775</v>
+        <v>0.9783373366533485</v>
       </c>
       <c r="J3">
-        <v>0.9556751544417748</v>
+        <v>0.9783373366533487</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -629,22 +629,22 @@
         <v>17.152367</v>
       </c>
       <c r="O3">
-        <v>0.04016350035062346</v>
+        <v>0.03956530671562308</v>
       </c>
       <c r="P3">
-        <v>0.04016350035062346</v>
+        <v>0.03956530671562306</v>
       </c>
       <c r="Q3">
-        <v>160.4465551364681</v>
+        <v>254.4103032710724</v>
       </c>
       <c r="R3">
-        <v>1444.018996228213</v>
+        <v>2289.692729439652</v>
       </c>
       <c r="S3">
-        <v>0.03838325940050435</v>
+        <v>0.03870821679603553</v>
       </c>
       <c r="T3">
-        <v>0.03838325940050435</v>
+        <v>0.03870821679603552</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -667,16 +667,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>28.06257966666666</v>
+        <v>44.49711866666667</v>
       </c>
       <c r="H4">
-        <v>84.18773899999999</v>
+        <v>133.491356</v>
       </c>
       <c r="I4">
-        <v>0.955675154441775</v>
+        <v>0.9783373366533485</v>
       </c>
       <c r="J4">
-        <v>0.9556751544417748</v>
+        <v>0.9783373366533487</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -685,28 +685,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>14.17143466666666</v>
+        <v>16.124321</v>
       </c>
       <c r="N4">
-        <v>42.514304</v>
+        <v>48.372963</v>
       </c>
       <c r="O4">
-        <v>0.09955029901182223</v>
+        <v>0.111581749494894</v>
       </c>
       <c r="P4">
-        <v>0.09955029901182225</v>
+        <v>0.111581749494894</v>
       </c>
       <c r="Q4">
-        <v>397.687014324295</v>
+        <v>717.4858249564253</v>
       </c>
       <c r="R4">
-        <v>3579.183128918655</v>
+        <v>6457.372424607827</v>
       </c>
       <c r="S4">
-        <v>0.0951377473828481</v>
+        <v>0.1091645916199557</v>
       </c>
       <c r="T4">
-        <v>0.09513774738284808</v>
+        <v>0.1091645916199557</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -729,16 +729,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>28.06257966666666</v>
+        <v>44.49711866666667</v>
       </c>
       <c r="H5">
-        <v>84.18773899999999</v>
+        <v>133.491356</v>
       </c>
       <c r="I5">
-        <v>0.955675154441775</v>
+        <v>0.9783373366533485</v>
       </c>
       <c r="J5">
-        <v>0.9556751544417748</v>
+        <v>0.9783373366533487</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -747,28 +747,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>32.85839333333333</v>
+        <v>11.37633566666667</v>
       </c>
       <c r="N5">
-        <v>98.57517999999999</v>
+        <v>34.129007</v>
       </c>
       <c r="O5">
-        <v>0.2308208701745229</v>
+        <v>0.07872526455705194</v>
       </c>
       <c r="P5">
-        <v>0.2308208701745229</v>
+        <v>0.07872526455705191</v>
       </c>
       <c r="Q5">
-        <v>922.0912806353355</v>
+        <v>506.2141581514991</v>
       </c>
       <c r="R5">
-        <v>8298.821525718018</v>
+        <v>4555.927423363492</v>
       </c>
       <c r="S5">
-        <v>0.2205897707524221</v>
+        <v>0.07701986565407645</v>
       </c>
       <c r="T5">
-        <v>0.220589770752422</v>
+        <v>0.07701986565407642</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -791,16 +791,16 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>28.06257966666666</v>
+        <v>44.49711866666667</v>
       </c>
       <c r="H6">
-        <v>84.18773899999999</v>
+        <v>133.491356</v>
       </c>
       <c r="I6">
-        <v>0.955675154441775</v>
+        <v>0.9783373366533485</v>
       </c>
       <c r="J6">
-        <v>0.9556751544417748</v>
+        <v>0.9783373366533487</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -809,28 +809,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>28.53112133333333</v>
+        <v>36.54706633333333</v>
       </c>
       <c r="N6">
-        <v>85.59336400000001</v>
+        <v>109.641199</v>
       </c>
       <c r="O6">
-        <v>0.2004230147958612</v>
+        <v>0.2529089814311731</v>
       </c>
       <c r="P6">
-        <v>0.2004230147958612</v>
+        <v>0.2529089814311731</v>
       </c>
       <c r="Q6">
-        <v>800.6568653959995</v>
+        <v>1626.239147552872</v>
       </c>
       <c r="R6">
-        <v>7205.911788563996</v>
+        <v>14636.15232797584</v>
       </c>
       <c r="S6">
-        <v>0.1915392956187209</v>
+        <v>0.2474302993090851</v>
       </c>
       <c r="T6">
-        <v>0.1915392956187208</v>
+        <v>0.2474302993090851</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -853,16 +853,16 @@
         <v>1</v>
       </c>
       <c r="G7">
-        <v>28.06257966666666</v>
+        <v>44.49711866666667</v>
       </c>
       <c r="H7">
-        <v>84.18773899999999</v>
+        <v>133.491356</v>
       </c>
       <c r="I7">
-        <v>0.955675154441775</v>
+        <v>0.9783373366533485</v>
       </c>
       <c r="J7">
-        <v>0.9556751544417748</v>
+        <v>0.9783373366533487</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -871,28 +871,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>15.94503</v>
+        <v>12.15287633333333</v>
       </c>
       <c r="N7">
-        <v>47.83509</v>
+        <v>36.458629</v>
       </c>
       <c r="O7">
-        <v>0.1120093019224172</v>
+        <v>0.08409899571389245</v>
       </c>
       <c r="P7">
-        <v>0.1120093019224172</v>
+        <v>0.08409899571389244</v>
       </c>
       <c r="Q7">
-        <v>447.45867466239</v>
+        <v>540.7679803456582</v>
       </c>
       <c r="R7">
-        <v>4027.12807196151</v>
+        <v>4866.911823110924</v>
       </c>
       <c r="S7">
-        <v>0.1070445069136215</v>
+        <v>0.08227718748195093</v>
       </c>
       <c r="T7">
-        <v>0.1070445069136214</v>
+        <v>0.08227718748195091</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -921,10 +921,10 @@
         <v>0.519023</v>
       </c>
       <c r="I8">
-        <v>0.005891800772602212</v>
+        <v>0.003803838650660129</v>
       </c>
       <c r="J8">
-        <v>0.005891800772602211</v>
+        <v>0.00380383865066013</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -933,28 +933,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>45.13108133333333</v>
+        <v>62.58874</v>
       </c>
       <c r="N8">
-        <v>135.393244</v>
+        <v>187.76622</v>
       </c>
       <c r="O8">
-        <v>0.3170330137447531</v>
+        <v>0.4331197020873656</v>
       </c>
       <c r="P8">
-        <v>0.3170330137447531</v>
+        <v>0.4331197020873655</v>
       </c>
       <c r="Q8">
-        <v>7.808023075623556</v>
+        <v>10.82833186700667</v>
       </c>
       <c r="R8">
-        <v>70.27220768061201</v>
+        <v>97.45498680306001</v>
       </c>
       <c r="S8">
-        <v>0.001867895355321744</v>
+        <v>0.001647517463162322</v>
       </c>
       <c r="T8">
-        <v>0.001867895355321744</v>
+        <v>0.001647517463162322</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -983,10 +983,10 @@
         <v>0.519023</v>
       </c>
       <c r="I9">
-        <v>0.005891800772602212</v>
+        <v>0.003803838650660129</v>
       </c>
       <c r="J9">
-        <v>0.005891800772602211</v>
+        <v>0.00380383865066013</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -1001,10 +1001,10 @@
         <v>17.152367</v>
       </c>
       <c r="O9">
-        <v>0.04016350035062346</v>
+        <v>0.03956530671562308</v>
       </c>
       <c r="P9">
-        <v>0.04016350035062346</v>
+        <v>0.03956530671562306</v>
       </c>
       <c r="Q9">
         <v>0.989163664160111</v>
@@ -1013,10 +1013,10 @@
         <v>8.902472977440999</v>
       </c>
       <c r="S9">
-        <v>0.0002366353423962125</v>
+        <v>0.0001505000429101098</v>
       </c>
       <c r="T9">
-        <v>0.0002366353423962125</v>
+        <v>0.0001505000429101098</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1045,10 +1045,10 @@
         <v>0.519023</v>
       </c>
       <c r="I10">
-        <v>0.005891800772602212</v>
+        <v>0.003803838650660129</v>
       </c>
       <c r="J10">
-        <v>0.005891800772602211</v>
+        <v>0.00380383865066013</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1057,28 +1057,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>14.17143466666666</v>
+        <v>16.124321</v>
       </c>
       <c r="N10">
-        <v>42.514304</v>
+        <v>48.372963</v>
       </c>
       <c r="O10">
-        <v>0.09955029901182223</v>
+        <v>0.111581749494894</v>
       </c>
       <c r="P10">
-        <v>0.09955029901182225</v>
+        <v>0.111581749494894</v>
       </c>
       <c r="Q10">
-        <v>2.451766844999111</v>
+        <v>2.789631152794333</v>
       </c>
       <c r="R10">
-        <v>22.065901604992</v>
+        <v>25.106680375149</v>
       </c>
       <c r="S10">
-        <v>0.0005865305286306355</v>
+        <v>0.0004244389714369542</v>
       </c>
       <c r="T10">
-        <v>0.0005865305286306355</v>
+        <v>0.0004244389714369542</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1107,10 +1107,10 @@
         <v>0.519023</v>
       </c>
       <c r="I11">
-        <v>0.005891800772602212</v>
+        <v>0.003803838650660129</v>
       </c>
       <c r="J11">
-        <v>0.005891800772602211</v>
+        <v>0.00380383865066013</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1119,28 +1119,28 @@
         <v>1</v>
       </c>
       <c r="M11">
-        <v>32.85839333333333</v>
+        <v>11.37633566666667</v>
       </c>
       <c r="N11">
-        <v>98.57517999999999</v>
+        <v>34.129007</v>
       </c>
       <c r="O11">
-        <v>0.2308208701745229</v>
+        <v>0.07872526455705194</v>
       </c>
       <c r="P11">
-        <v>0.2308208701745229</v>
+        <v>0.07872526455705191</v>
       </c>
       <c r="Q11">
-        <v>5.684753961015556</v>
+        <v>1.968193288906778</v>
       </c>
       <c r="R11">
-        <v>51.16278564914</v>
+        <v>17.713739600161</v>
       </c>
       <c r="S11">
-        <v>0.001359950581226969</v>
+        <v>0.0002994582041055581</v>
       </c>
       <c r="T11">
-        <v>0.001359950581226969</v>
+        <v>0.0002994582041055581</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1169,10 +1169,10 @@
         <v>0.519023</v>
       </c>
       <c r="I12">
-        <v>0.005891800772602212</v>
+        <v>0.003803838650660129</v>
       </c>
       <c r="J12">
-        <v>0.005891800772602211</v>
+        <v>0.00380383865066013</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1181,28 +1181,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>28.53112133333333</v>
+        <v>36.54706633333333</v>
       </c>
       <c r="N12">
-        <v>85.59336400000001</v>
+        <v>109.641199</v>
       </c>
       <c r="O12">
-        <v>0.2004230147958612</v>
+        <v>0.2529089814311731</v>
       </c>
       <c r="P12">
-        <v>0.2004230147958612</v>
+        <v>0.2529089814311731</v>
       </c>
       <c r="Q12">
-        <v>4.936102729263556</v>
+        <v>6.322922669841889</v>
       </c>
       <c r="R12">
-        <v>44.424924563372</v>
+        <v>56.906304028577</v>
       </c>
       <c r="S12">
-        <v>0.00118085247342152</v>
+        <v>0.0009620249586669811</v>
       </c>
       <c r="T12">
-        <v>0.00118085247342152</v>
+        <v>0.0009620249586669812</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1231,10 +1231,10 @@
         <v>0.519023</v>
       </c>
       <c r="I13">
-        <v>0.005891800772602212</v>
+        <v>0.003803838650660129</v>
       </c>
       <c r="J13">
-        <v>0.005891800772602211</v>
+        <v>0.00380383865066013</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1243,28 +1243,28 @@
         <v>1</v>
       </c>
       <c r="M13">
-        <v>15.94503</v>
+        <v>12.15287633333333</v>
       </c>
       <c r="N13">
-        <v>47.83509</v>
+        <v>36.458629</v>
       </c>
       <c r="O13">
-        <v>0.1120093019224172</v>
+        <v>0.08409899571389245</v>
       </c>
       <c r="P13">
-        <v>0.1120093019224172</v>
+        <v>0.08409899571389244</v>
       </c>
       <c r="Q13">
-        <v>2.75861243523</v>
+        <v>2.102540777718556</v>
       </c>
       <c r="R13">
-        <v>24.82751191707</v>
+        <v>18.922866999467</v>
       </c>
       <c r="S13">
-        <v>0.000659936491605132</v>
+        <v>0.0003198990103782047</v>
       </c>
       <c r="T13">
-        <v>0.0006599364916051319</v>
+        <v>0.0003198990103782047</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1287,16 +1287,16 @@
         <v>1</v>
       </c>
       <c r="G14">
-        <v>0.4035783333333333</v>
+        <v>0.04618266666666667</v>
       </c>
       <c r="H14">
-        <v>1.210735</v>
+        <v>0.138548</v>
       </c>
       <c r="I14">
-        <v>0.01374391772313855</v>
+        <v>0.001015396692192176</v>
       </c>
       <c r="J14">
-        <v>0.01374391772313855</v>
+        <v>0.001015396692192176</v>
       </c>
       <c r="K14">
         <v>3</v>
@@ -1305,28 +1305,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>45.13108133333333</v>
+        <v>62.58874</v>
       </c>
       <c r="N14">
-        <v>135.393244</v>
+        <v>187.76622</v>
       </c>
       <c r="O14">
-        <v>0.3170330137447531</v>
+        <v>0.4331197020873656</v>
       </c>
       <c r="P14">
-        <v>0.3170330137447531</v>
+        <v>0.4331197020873655</v>
       </c>
       <c r="Q14">
-        <v>18.21392658603778</v>
+        <v>2.890514916506667</v>
       </c>
       <c r="R14">
-        <v>163.92533927434</v>
+        <v>26.01463424856</v>
       </c>
       <c r="S14">
-        <v>0.004357275656426539</v>
+        <v>0.0004397883128227716</v>
       </c>
       <c r="T14">
-        <v>0.004357275656426538</v>
+        <v>0.0004397883128227715</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1349,16 +1349,16 @@
         <v>1</v>
       </c>
       <c r="G15">
-        <v>0.4035783333333333</v>
+        <v>0.04618266666666667</v>
       </c>
       <c r="H15">
-        <v>1.210735</v>
+        <v>0.138548</v>
       </c>
       <c r="I15">
-        <v>0.01374391772313855</v>
+        <v>0.001015396692192176</v>
       </c>
       <c r="J15">
-        <v>0.01374391772313855</v>
+        <v>0.001015396692192176</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1373,22 +1373,22 @@
         <v>17.152367</v>
       </c>
       <c r="O15">
-        <v>0.04016350035062346</v>
+        <v>0.03956530671562308</v>
       </c>
       <c r="P15">
-        <v>0.04016350035062346</v>
+        <v>0.03956530671562306</v>
       </c>
       <c r="Q15">
-        <v>2.307441228860555</v>
+        <v>0.2640473492351111</v>
       </c>
       <c r="R15">
-        <v>20.766971059745</v>
+        <v>2.376426143116</v>
       </c>
       <c r="S15">
-        <v>0.000552003844292215</v>
+        <v>4.017448156461255E-05</v>
       </c>
       <c r="T15">
-        <v>0.0005520038442922149</v>
+        <v>4.017448156461253E-05</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1411,16 +1411,16 @@
         <v>1</v>
       </c>
       <c r="G16">
-        <v>0.4035783333333333</v>
+        <v>0.04618266666666667</v>
       </c>
       <c r="H16">
-        <v>1.210735</v>
+        <v>0.138548</v>
       </c>
       <c r="I16">
-        <v>0.01374391772313855</v>
+        <v>0.001015396692192176</v>
       </c>
       <c r="J16">
-        <v>0.01374391772313855</v>
+        <v>0.001015396692192176</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1429,28 +1429,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>14.17143466666666</v>
+        <v>16.124321</v>
       </c>
       <c r="N16">
-        <v>42.514304</v>
+        <v>48.372963</v>
       </c>
       <c r="O16">
-        <v>0.09955029901182223</v>
+        <v>0.111581749494894</v>
       </c>
       <c r="P16">
-        <v>0.09955029901182225</v>
+        <v>0.111581749494894</v>
       </c>
       <c r="Q16">
-        <v>5.719283983715554</v>
+        <v>0.7446641419693333</v>
       </c>
       <c r="R16">
-        <v>51.47355585343999</v>
+        <v>6.701977277724</v>
       </c>
       <c r="S16">
-        <v>0.001368211118932326</v>
+        <v>0.0001132997393461313</v>
       </c>
       <c r="T16">
-        <v>0.001368211118932325</v>
+        <v>0.0001132997393461313</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1473,16 +1473,16 @@
         <v>1</v>
       </c>
       <c r="G17">
-        <v>0.4035783333333333</v>
+        <v>0.04618266666666667</v>
       </c>
       <c r="H17">
-        <v>1.210735</v>
+        <v>0.138548</v>
       </c>
       <c r="I17">
-        <v>0.01374391772313855</v>
+        <v>0.001015396692192176</v>
       </c>
       <c r="J17">
-        <v>0.01374391772313855</v>
+        <v>0.001015396692192176</v>
       </c>
       <c r="K17">
         <v>3</v>
@@ -1491,28 +1491,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>32.85839333333333</v>
+        <v>11.37633566666667</v>
       </c>
       <c r="N17">
-        <v>98.57517999999999</v>
+        <v>34.129007</v>
       </c>
       <c r="O17">
-        <v>0.2308208701745229</v>
+        <v>0.07872526455705194</v>
       </c>
       <c r="P17">
-        <v>0.2308208701745229</v>
+        <v>0.07872526455705191</v>
       </c>
       <c r="Q17">
-        <v>13.26093561747778</v>
+        <v>0.5253895179817779</v>
       </c>
       <c r="R17">
-        <v>119.3484205573</v>
+        <v>4.728505661836</v>
       </c>
       <c r="S17">
-        <v>0.003172383048461887</v>
+        <v>7.993737322318447E-05</v>
       </c>
       <c r="T17">
-        <v>0.003172383048461887</v>
+        <v>7.993737322318444E-05</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1535,16 +1535,16 @@
         <v>1</v>
       </c>
       <c r="G18">
-        <v>0.4035783333333333</v>
+        <v>0.04618266666666667</v>
       </c>
       <c r="H18">
-        <v>1.210735</v>
+        <v>0.138548</v>
       </c>
       <c r="I18">
-        <v>0.01374391772313855</v>
+        <v>0.001015396692192176</v>
       </c>
       <c r="J18">
-        <v>0.01374391772313855</v>
+        <v>0.001015396692192176</v>
       </c>
       <c r="K18">
         <v>3</v>
@@ -1553,28 +1553,28 @@
         <v>1</v>
       </c>
       <c r="M18">
-        <v>28.53112133333333</v>
+        <v>36.54706633333333</v>
       </c>
       <c r="N18">
-        <v>85.59336400000001</v>
+        <v>109.641199</v>
       </c>
       <c r="O18">
-        <v>0.2004230147958612</v>
+        <v>0.2529089814311731</v>
       </c>
       <c r="P18">
-        <v>0.2004230147958612</v>
+        <v>0.2529089814311731</v>
       </c>
       <c r="Q18">
-        <v>11.51454239583778</v>
+        <v>1.687840982116889</v>
       </c>
       <c r="R18">
-        <v>103.63088156254</v>
+        <v>15.190568839052</v>
       </c>
       <c r="S18">
-        <v>0.002754597425177697</v>
+        <v>0.0002568029431709056</v>
       </c>
       <c r="T18">
-        <v>0.002754597425177696</v>
+        <v>0.0002568029431709056</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1597,16 +1597,16 @@
         <v>1</v>
       </c>
       <c r="G19">
-        <v>0.4035783333333333</v>
+        <v>0.04618266666666667</v>
       </c>
       <c r="H19">
-        <v>1.210735</v>
+        <v>0.138548</v>
       </c>
       <c r="I19">
-        <v>0.01374391772313855</v>
+        <v>0.001015396692192176</v>
       </c>
       <c r="J19">
-        <v>0.01374391772313855</v>
+        <v>0.001015396692192176</v>
       </c>
       <c r="K19">
         <v>3</v>
@@ -1615,28 +1615,28 @@
         <v>1</v>
       </c>
       <c r="M19">
-        <v>15.94503</v>
+        <v>12.15287633333333</v>
       </c>
       <c r="N19">
-        <v>47.83509</v>
+        <v>36.458629</v>
       </c>
       <c r="O19">
-        <v>0.1120093019224172</v>
+        <v>0.08409899571389245</v>
       </c>
       <c r="P19">
-        <v>0.1120093019224172</v>
+        <v>0.08409899571389244</v>
       </c>
       <c r="Q19">
-        <v>6.43506863235</v>
+        <v>0.5612522367435556</v>
       </c>
       <c r="R19">
-        <v>57.91561769115</v>
+        <v>5.051270130692</v>
       </c>
       <c r="S19">
-        <v>0.001539446629847886</v>
+        <v>8.539384206457036E-05</v>
       </c>
       <c r="T19">
-        <v>0.001539446629847886</v>
+        <v>8.539384206457035E-05</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1653,22 +1653,22 @@
         <v>20</v>
       </c>
       <c r="E20">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F20">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G20">
-        <v>0.4046196666666666</v>
+        <v>0.721682</v>
       </c>
       <c r="H20">
-        <v>1.213859</v>
+        <v>2.165046</v>
       </c>
       <c r="I20">
-        <v>0.01377938047837986</v>
+        <v>0.0158672846005998</v>
       </c>
       <c r="J20">
-        <v>0.01377938047837985</v>
+        <v>0.0158672846005998</v>
       </c>
       <c r="K20">
         <v>3</v>
@@ -1677,28 +1677,28 @@
         <v>1</v>
       </c>
       <c r="M20">
-        <v>45.13108133333333</v>
+        <v>62.58874</v>
       </c>
       <c r="N20">
-        <v>135.393244</v>
+        <v>187.76622</v>
       </c>
       <c r="O20">
-        <v>0.3170330137447531</v>
+        <v>0.4331197020873656</v>
       </c>
       <c r="P20">
-        <v>0.3170330137447531</v>
+        <v>0.4331197020873655</v>
       </c>
       <c r="Q20">
-        <v>18.26092308539955</v>
+        <v>45.16916706068</v>
       </c>
       <c r="R20">
-        <v>164.348307768596</v>
+        <v>406.52250354612</v>
       </c>
       <c r="S20">
-        <v>0.004368518520596383</v>
+        <v>0.006872433579147229</v>
       </c>
       <c r="T20">
-        <v>0.004368518520596382</v>
+        <v>0.00687243357914723</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1715,22 +1715,22 @@
         <v>21</v>
       </c>
       <c r="E21">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F21">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G21">
-        <v>0.4046196666666666</v>
+        <v>0.721682</v>
       </c>
       <c r="H21">
-        <v>1.213859</v>
+        <v>2.165046</v>
       </c>
       <c r="I21">
-        <v>0.01377938047837986</v>
+        <v>0.0158672846005998</v>
       </c>
       <c r="J21">
-        <v>0.01377938047837985</v>
+        <v>0.0158672846005998</v>
       </c>
       <c r="K21">
         <v>3</v>
@@ -1745,22 +1745,22 @@
         <v>17.152367</v>
       </c>
       <c r="O21">
-        <v>0.04016350035062346</v>
+        <v>0.03956530671562308</v>
       </c>
       <c r="P21">
-        <v>0.04016350035062346</v>
+        <v>0.03956530671562306</v>
       </c>
       <c r="Q21">
-        <v>2.31339500602811</v>
+        <v>4.126184840431333</v>
       </c>
       <c r="R21">
-        <v>20.820555054253</v>
+        <v>37.135663563882</v>
       </c>
       <c r="S21">
-        <v>0.0005534281526747834</v>
+        <v>0.0006277939819668139</v>
       </c>
       <c r="T21">
-        <v>0.0005534281526747832</v>
+        <v>0.0006277939819668138</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1777,22 +1777,22 @@
         <v>27</v>
       </c>
       <c r="E22">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F22">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G22">
-        <v>0.4046196666666666</v>
+        <v>0.721682</v>
       </c>
       <c r="H22">
-        <v>1.213859</v>
+        <v>2.165046</v>
       </c>
       <c r="I22">
-        <v>0.01377938047837986</v>
+        <v>0.0158672846005998</v>
       </c>
       <c r="J22">
-        <v>0.01377938047837985</v>
+        <v>0.0158672846005998</v>
       </c>
       <c r="K22">
         <v>3</v>
@@ -1801,28 +1801,28 @@
         <v>1</v>
       </c>
       <c r="M22">
-        <v>14.17143466666666</v>
+        <v>16.124321</v>
       </c>
       <c r="N22">
-        <v>42.514304</v>
+        <v>48.372963</v>
       </c>
       <c r="O22">
-        <v>0.09955029901182223</v>
+        <v>0.111581749494894</v>
       </c>
       <c r="P22">
-        <v>0.09955029901182225</v>
+        <v>0.111581749494894</v>
       </c>
       <c r="Q22">
-        <v>5.734041171015109</v>
+        <v>11.636632227922</v>
       </c>
       <c r="R22">
-        <v>51.60637053913599</v>
+        <v>104.729690051298</v>
       </c>
       <c r="S22">
-        <v>0.001371741446820381</v>
+        <v>0.001770499375468316</v>
       </c>
       <c r="T22">
-        <v>0.00137174144682038</v>
+        <v>0.001770499375468316</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1839,22 +1839,22 @@
         <v>22</v>
       </c>
       <c r="E23">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F23">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G23">
-        <v>0.4046196666666666</v>
+        <v>0.721682</v>
       </c>
       <c r="H23">
-        <v>1.213859</v>
+        <v>2.165046</v>
       </c>
       <c r="I23">
-        <v>0.01377938047837986</v>
+        <v>0.0158672846005998</v>
       </c>
       <c r="J23">
-        <v>0.01377938047837985</v>
+        <v>0.0158672846005998</v>
       </c>
       <c r="K23">
         <v>3</v>
@@ -1863,28 +1863,28 @@
         <v>1</v>
       </c>
       <c r="M23">
-        <v>32.85839333333333</v>
+        <v>11.37633566666667</v>
       </c>
       <c r="N23">
-        <v>98.57517999999999</v>
+        <v>34.129007</v>
       </c>
       <c r="O23">
-        <v>0.2308208701745229</v>
+        <v>0.07872526455705194</v>
       </c>
       <c r="P23">
-        <v>0.2308208701745229</v>
+        <v>0.07872526455705191</v>
       </c>
       <c r="Q23">
-        <v>13.29515215773555</v>
+        <v>8.210096676591334</v>
       </c>
       <c r="R23">
-        <v>119.65636941962</v>
+        <v>73.89087008932201</v>
       </c>
       <c r="S23">
-        <v>0.003180568592485472</v>
+        <v>0.001249156177984256</v>
       </c>
       <c r="T23">
-        <v>0.003180568592485471</v>
+        <v>0.001249156177984255</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1901,22 +1901,22 @@
         <v>23</v>
       </c>
       <c r="E24">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F24">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G24">
-        <v>0.4046196666666666</v>
+        <v>0.721682</v>
       </c>
       <c r="H24">
-        <v>1.213859</v>
+        <v>2.165046</v>
       </c>
       <c r="I24">
-        <v>0.01377938047837986</v>
+        <v>0.0158672846005998</v>
       </c>
       <c r="J24">
-        <v>0.01377938047837985</v>
+        <v>0.0158672846005998</v>
       </c>
       <c r="K24">
         <v>3</v>
@@ -1925,28 +1925,28 @@
         <v>1</v>
       </c>
       <c r="M24">
-        <v>28.53112133333333</v>
+        <v>36.54706633333333</v>
       </c>
       <c r="N24">
-        <v>85.59336400000001</v>
+        <v>109.641199</v>
       </c>
       <c r="O24">
-        <v>0.2004230147958612</v>
+        <v>0.2529089814311731</v>
       </c>
       <c r="P24">
-        <v>0.2004230147958612</v>
+        <v>0.2529089814311731</v>
       </c>
       <c r="Q24">
-        <v>11.54425280351956</v>
+        <v>26.37535992557267</v>
       </c>
       <c r="R24">
-        <v>103.898275231676</v>
+        <v>237.378239330154</v>
       </c>
       <c r="S24">
-        <v>0.002761704977496127</v>
+        <v>0.004012978786416234</v>
       </c>
       <c r="T24">
-        <v>0.002761704977496127</v>
+        <v>0.004012978786416235</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -1963,22 +1963,22 @@
         <v>24</v>
       </c>
       <c r="E25">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F25">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G25">
-        <v>0.4046196666666666</v>
+        <v>0.721682</v>
       </c>
       <c r="H25">
-        <v>1.213859</v>
+        <v>2.165046</v>
       </c>
       <c r="I25">
-        <v>0.01377938047837986</v>
+        <v>0.0158672846005998</v>
       </c>
       <c r="J25">
-        <v>0.01377938047837985</v>
+        <v>0.0158672846005998</v>
       </c>
       <c r="K25">
         <v>3</v>
@@ -1987,28 +1987,28 @@
         <v>1</v>
       </c>
       <c r="M25">
-        <v>15.94503</v>
+        <v>12.15287633333333</v>
       </c>
       <c r="N25">
-        <v>47.83509</v>
+        <v>36.458629</v>
       </c>
       <c r="O25">
-        <v>0.1120093019224172</v>
+        <v>0.08409899571389245</v>
       </c>
       <c r="P25">
-        <v>0.1120093019224172</v>
+        <v>0.08409899571389244</v>
       </c>
       <c r="Q25">
-        <v>6.451672723589999</v>
+        <v>8.770512097992667</v>
       </c>
       <c r="R25">
-        <v>58.06505451230999</v>
+        <v>78.93460888193401</v>
       </c>
       <c r="S25">
-        <v>0.001543418788306711</v>
+        <v>0.001334422699616954</v>
       </c>
       <c r="T25">
-        <v>0.00154341878830671</v>
+        <v>0.001334422699616954</v>
       </c>
     </row>
     <row r="26" spans="1:20">
@@ -2025,22 +2025,22 @@
         <v>20</v>
       </c>
       <c r="E26">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F26">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G26">
-        <v>0.3203553333333333</v>
+        <v>0.04439733333333332</v>
       </c>
       <c r="H26">
-        <v>0.961066</v>
+        <v>0.133192</v>
       </c>
       <c r="I26">
-        <v>0.01090974658410459</v>
+        <v>0.0009761434031993261</v>
       </c>
       <c r="J26">
-        <v>0.01090974658410459</v>
+        <v>0.0009761434031993262</v>
       </c>
       <c r="K26">
         <v>3</v>
@@ -2049,28 +2049,28 @@
         <v>1</v>
       </c>
       <c r="M26">
-        <v>45.13108133333333</v>
+        <v>62.58874</v>
       </c>
       <c r="N26">
-        <v>135.393244</v>
+        <v>187.76622</v>
       </c>
       <c r="O26">
-        <v>0.3170330137447531</v>
+        <v>0.4331197020873656</v>
       </c>
       <c r="P26">
-        <v>0.3170330137447531</v>
+        <v>0.4331197020873655</v>
       </c>
       <c r="Q26">
-        <v>14.45798260423378</v>
+        <v>2.778773152693333</v>
       </c>
       <c r="R26">
-        <v>130.121843438104</v>
+        <v>25.00895837424</v>
       </c>
       <c r="S26">
-        <v>0.003458749838750204</v>
+        <v>0.0004227869399882393</v>
       </c>
       <c r="T26">
-        <v>0.003458749838750203</v>
+        <v>0.0004227869399882393</v>
       </c>
     </row>
     <row r="27" spans="1:20">
@@ -2087,22 +2087,22 @@
         <v>21</v>
       </c>
       <c r="E27">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F27">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G27">
-        <v>0.3203553333333333</v>
+        <v>0.04439733333333332</v>
       </c>
       <c r="H27">
-        <v>0.961066</v>
+        <v>0.133192</v>
       </c>
       <c r="I27">
-        <v>0.01090974658410459</v>
+        <v>0.0009761434031993261</v>
       </c>
       <c r="J27">
-        <v>0.01090974658410459</v>
+        <v>0.0009761434031993262</v>
       </c>
       <c r="K27">
         <v>3</v>
@@ -2117,22 +2117,22 @@
         <v>17.152367</v>
       </c>
       <c r="O27">
-        <v>0.04016350035062346</v>
+        <v>0.03956530671562308</v>
       </c>
       <c r="P27">
-        <v>0.04016350035062346</v>
+        <v>0.03956530671562306</v>
       </c>
       <c r="Q27">
-        <v>1.831617415913555</v>
+        <v>0.2538397850515555</v>
       </c>
       <c r="R27">
-        <v>16.484556743222</v>
+        <v>2.284558065463999</v>
       </c>
       <c r="S27">
-        <v>0.0004381736107558979</v>
+        <v>3.862141314601346E-05</v>
       </c>
       <c r="T27">
-        <v>0.0004381736107558978</v>
+        <v>3.862141314601345E-05</v>
       </c>
     </row>
     <row r="28" spans="1:20">
@@ -2149,22 +2149,22 @@
         <v>27</v>
       </c>
       <c r="E28">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F28">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G28">
-        <v>0.3203553333333333</v>
+        <v>0.04439733333333332</v>
       </c>
       <c r="H28">
-        <v>0.961066</v>
+        <v>0.133192</v>
       </c>
       <c r="I28">
-        <v>0.01090974658410459</v>
+        <v>0.0009761434031993261</v>
       </c>
       <c r="J28">
-        <v>0.01090974658410459</v>
+        <v>0.0009761434031993262</v>
       </c>
       <c r="K28">
         <v>3</v>
@@ -2173,28 +2173,28 @@
         <v>1</v>
       </c>
       <c r="M28">
-        <v>14.17143466666666</v>
+        <v>16.124321</v>
       </c>
       <c r="N28">
-        <v>42.514304</v>
+        <v>48.372963</v>
       </c>
       <c r="O28">
-        <v>0.09955029901182223</v>
+        <v>0.111581749494894</v>
       </c>
       <c r="P28">
-        <v>0.09955029901182225</v>
+        <v>0.111581749494894</v>
       </c>
       <c r="Q28">
-        <v>4.539894676451555</v>
+        <v>0.7158768542106664</v>
       </c>
       <c r="R28">
-        <v>40.859052088064</v>
+        <v>6.442891687895998</v>
       </c>
       <c r="S28">
-        <v>0.001086068534590818</v>
+        <v>0.0001089197886868805</v>
       </c>
       <c r="T28">
-        <v>0.001086068534590818</v>
+        <v>0.0001089197886868805</v>
       </c>
     </row>
     <row r="29" spans="1:20">
@@ -2211,22 +2211,22 @@
         <v>22</v>
       </c>
       <c r="E29">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F29">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G29">
-        <v>0.3203553333333333</v>
+        <v>0.04439733333333332</v>
       </c>
       <c r="H29">
-        <v>0.961066</v>
+        <v>0.133192</v>
       </c>
       <c r="I29">
-        <v>0.01090974658410459</v>
+        <v>0.0009761434031993261</v>
       </c>
       <c r="J29">
-        <v>0.01090974658410459</v>
+        <v>0.0009761434031993262</v>
       </c>
       <c r="K29">
         <v>3</v>
@@ -2235,28 +2235,28 @@
         <v>1</v>
       </c>
       <c r="M29">
-        <v>32.85839333333333</v>
+        <v>11.37633566666667</v>
       </c>
       <c r="N29">
-        <v>98.57517999999999</v>
+        <v>34.129007</v>
       </c>
       <c r="O29">
-        <v>0.2308208701745229</v>
+        <v>0.07872526455705194</v>
       </c>
       <c r="P29">
-        <v>0.2308208701745229</v>
+        <v>0.07872526455705191</v>
       </c>
       <c r="Q29">
-        <v>10.52636154909778</v>
+        <v>0.5050789667048888</v>
       </c>
       <c r="R29">
-        <v>94.73725394187998</v>
+        <v>4.545710700343999</v>
       </c>
       <c r="S29">
-        <v>0.002518197199926551</v>
+        <v>7.684714766248797E-05</v>
       </c>
       <c r="T29">
-        <v>0.00251819719992655</v>
+        <v>7.684714766248794E-05</v>
       </c>
     </row>
     <row r="30" spans="1:20">
@@ -2273,22 +2273,22 @@
         <v>23</v>
       </c>
       <c r="E30">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F30">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G30">
-        <v>0.3203553333333333</v>
+        <v>0.04439733333333332</v>
       </c>
       <c r="H30">
-        <v>0.961066</v>
+        <v>0.133192</v>
       </c>
       <c r="I30">
-        <v>0.01090974658410459</v>
+        <v>0.0009761434031993261</v>
       </c>
       <c r="J30">
-        <v>0.01090974658410459</v>
+        <v>0.0009761434031993262</v>
       </c>
       <c r="K30">
         <v>3</v>
@@ -2297,28 +2297,28 @@
         <v>1</v>
       </c>
       <c r="M30">
-        <v>28.53112133333333</v>
+        <v>36.54706633333333</v>
       </c>
       <c r="N30">
-        <v>85.59336400000001</v>
+        <v>109.641199</v>
       </c>
       <c r="O30">
-        <v>0.2004230147958612</v>
+        <v>0.2529089814311731</v>
       </c>
       <c r="P30">
-        <v>0.2004230147958612</v>
+        <v>0.2529089814311731</v>
       </c>
       <c r="Q30">
-        <v>9.140096885113778</v>
+        <v>1.622592286356444</v>
       </c>
       <c r="R30">
-        <v>82.26087196602401</v>
+        <v>14.603330577208</v>
       </c>
       <c r="S30">
-        <v>0.002186564301045091</v>
+        <v>0.0002468754338339005</v>
       </c>
       <c r="T30">
-        <v>0.002186564301045091</v>
+        <v>0.0002468754338339005</v>
       </c>
     </row>
     <row r="31" spans="1:20">
@@ -2335,22 +2335,22 @@
         <v>24</v>
       </c>
       <c r="E31">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F31">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G31">
-        <v>0.3203553333333333</v>
+        <v>0.04439733333333332</v>
       </c>
       <c r="H31">
-        <v>0.961066</v>
+        <v>0.133192</v>
       </c>
       <c r="I31">
-        <v>0.01090974658410459</v>
+        <v>0.0009761434031993261</v>
       </c>
       <c r="J31">
-        <v>0.01090974658410459</v>
+        <v>0.0009761434031993262</v>
       </c>
       <c r="K31">
         <v>3</v>
@@ -2359,28 +2359,28 @@
         <v>1</v>
       </c>
       <c r="M31">
-        <v>15.94503</v>
+        <v>12.15287633333333</v>
       </c>
       <c r="N31">
-        <v>47.83509</v>
+        <v>36.458629</v>
       </c>
       <c r="O31">
-        <v>0.1120093019224172</v>
+        <v>0.08409899571389245</v>
       </c>
       <c r="P31">
-        <v>0.1120093019224172</v>
+        <v>0.08409899571389244</v>
       </c>
       <c r="Q31">
-        <v>5.10807540066</v>
+        <v>0.5395553015297777</v>
       </c>
       <c r="R31">
-        <v>45.97267860594</v>
+        <v>4.855997713768</v>
       </c>
       <c r="S31">
-        <v>0.001221993099036031</v>
+        <v>8.209267988180451E-05</v>
       </c>
       <c r="T31">
-        <v>0.00122199309903603</v>
+        <v>8.209267988180451E-05</v>
       </c>
     </row>
   </sheetData>
